--- a/Excel_input/Login_Details.xlsx
+++ b/Excel_input/Login_Details.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19620" windowHeight="6000" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19620" windowHeight="6000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DD_ques1to3" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,6 @@
     <sheet name="flipkart_det" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="88">
   <si>
     <t>One</t>
   </si>
@@ -265,12 +264,36 @@
   </si>
   <si>
     <t>10 Aug 1994</t>
+  </si>
+  <si>
+    <t>lenin1904</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Hotel Sunshine</t>
+  </si>
+  <si>
+    <t>Double</t>
+  </si>
+  <si>
+    <t>Lenin</t>
+  </si>
+  <si>
+    <t>Raju</t>
+  </si>
+  <si>
+    <t>Kullathupadai Street, Sankarapuram. PIN - 606401</t>
+  </si>
+  <si>
+    <t>VISA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="dd\/mm\/yyyy"/>
@@ -362,7 +385,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -391,7 +414,6 @@
     <xf numFmtId="12" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -403,13 +425,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -471,7 +493,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -506,7 +528,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -683,7 +705,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -697,10 +719,10 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="27.5546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.109375" style="3" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -801,23 +823,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" collapsed="1"/>
     <col min="5" max="6" width="12" collapsed="1"/>
-    <col min="7" max="7" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.109375" customWidth="1" collapsed="1"/>
     <col min="9" max="10" width="12" collapsed="1"/>
-    <col min="13" max="13" width="18.42578125" customWidth="1"/>
-    <col min="14" max="14" width="20.42578125" customWidth="1"/>
+    <col min="13" max="13" width="18.44140625" customWidth="1"/>
+    <col min="14" max="14" width="20.44140625" customWidth="1"/>
     <col min="15" max="15" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -871,7 +893,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -890,10 +912,10 @@
       <c r="F2" s="1">
         <v>2</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="12" t="s">
         <v>62</v>
       </c>
       <c r="I2" s="1">
@@ -927,27 +949,63 @@
         <v>322</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="1">
+        <v>9943680807</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="1">
+        <v>4</v>
+      </c>
+      <c r="G3" s="12">
+        <v>44481</v>
+      </c>
+      <c r="H3" s="12">
+        <v>44482</v>
+      </c>
+      <c r="I3" s="1">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1">
+        <v>3</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="N3" s="11">
+        <v>1234567891234560</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="P3" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>2022</v>
+      </c>
+      <c r="R3" s="1">
+        <v>4564</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -967,7 +1025,7 @@
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -987,7 +1045,7 @@
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -1007,7 +1065,7 @@
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -1027,7 +1085,7 @@
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1047,7 +1105,7 @@
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -1078,25 +1136,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="46.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="46.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>47</v>
       </c>
@@ -1131,26 +1189,26 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>68</v>
       </c>
       <c r="D2" s="5">
         <v>9876543210</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="16">
         <v>1994</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="16" t="s">
         <v>77</v>
       </c>
       <c r="H2" s="5" t="s">
@@ -1162,11 +1220,11 @@
       <c r="J2" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="14" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1179,7 +1237,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1192,7 +1250,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1205,7 +1263,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -1218,7 +1276,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -1231,7 +1289,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1261,9 +1319,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="29.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" width="29.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1306,13 +1364,13 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1365,10 +1423,10 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
